--- a/inst/category_conversion_tables3.xlsx
+++ b/inst/category_conversion_tables3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F152FC96-5766-45CF-BF26-5845A26CAABA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE783C4E-5F25-4FE9-8602-D55E1C84ED6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dust_table_1.2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="184">
   <si>
     <t>Class/Subclass</t>
   </si>
@@ -565,13 +565,25 @@
   </si>
   <si>
     <t>NOTE: Subclass name variation</t>
+  </si>
+  <si>
+    <t>Wax</t>
+  </si>
+  <si>
+    <t>Pencil Shavings</t>
+  </si>
+  <si>
+    <t>Perlite</t>
+  </si>
+  <si>
+    <t>Drugs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -586,6 +598,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -641,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -655,6 +674,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD98"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,10 +1590,13 @@
       <c r="U17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="W17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1631,6 +1655,9 @@
         <v>53</v>
       </c>
       <c r="V18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1688,7 +1715,7 @@
       <c r="U19" t="s">
         <v>53</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1746,7 +1773,7 @@
       <c r="U20" t="s">
         <v>53</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1804,7 +1831,7 @@
       <c r="U21" t="s">
         <v>53</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1862,7 +1889,7 @@
       <c r="U22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V22" s="6" t="s">
+      <c r="W22" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3495,31 +3522,29 @@
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D65" t="s">
+      <c r="C66" t="s">
         <v>143</v>
       </c>
-      <c r="E65" t="s">
+      <c r="D66" t="s">
         <v>143</v>
       </c>
-      <c r="F65" t="s">
+      <c r="E66" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B66" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C66" t="s">
-        <v>144</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
+      <c r="F66" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
@@ -3528,15 +3553,6 @@
       <c r="C67" t="s">
         <v>144</v>
       </c>
-      <c r="D67" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" t="s">
-        <v>145</v>
-      </c>
-      <c r="F67" t="s">
-        <v>145</v>
-      </c>
       <c r="G67" s="6" t="s">
         <v>144</v>
       </c>
@@ -3545,136 +3561,123 @@
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
+    <row r="70" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="K69" t="s">
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="K70" t="s">
         <v>4</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M69" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N69" s="1" t="s">
+      <c r="N70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O69" s="1" t="s">
+      <c r="O70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q69" s="1" t="s">
+      <c r="Q70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R69" s="1" t="s">
+      <c r="R70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S69" s="1" t="s">
+      <c r="S70" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T69" s="8" t="s">
+      <c r="T70" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U69" s="4" t="s">
+      <c r="U70" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
+    <row r="71" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>149</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>148</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>148</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>148</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G71" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>147</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K71" t="s">
         <v>5</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M70" t="s">
-        <v>51</v>
-      </c>
-      <c r="N70" t="s">
-        <v>44</v>
-      </c>
-      <c r="O70" t="s">
-        <v>135</v>
-      </c>
-      <c r="P70" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>136</v>
-      </c>
-      <c r="R70" t="s">
-        <v>48</v>
-      </c>
-      <c r="S70" t="s">
-        <v>45</v>
-      </c>
-      <c r="T70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B71" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" t="s">
-        <v>148</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="K71" t="s">
-        <v>6</v>
       </c>
       <c r="L71" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="M71" t="s">
+        <v>51</v>
+      </c>
+      <c r="N71" t="s">
+        <v>44</v>
+      </c>
       <c r="O71" t="s">
         <v>135</v>
       </c>
@@ -3695,20 +3698,17 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B72" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H72" t="s">
-        <v>147</v>
+      <c r="B72" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="K72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L72" s="6" t="s">
         <v>126</v>
@@ -3733,35 +3733,27 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B73" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" t="s">
-        <v>151</v>
-      </c>
-      <c r="D73" t="s">
-        <v>151</v>
-      </c>
-      <c r="E73" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" t="s">
-        <v>151</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>151</v>
+      <c r="B73" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="H73" t="s">
         <v>147</v>
       </c>
       <c r="K73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
       <c r="O73" t="s">
         <v>135</v>
       </c>
@@ -3783,94 +3775,120 @@
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H74" t="s">
         <v>147</v>
       </c>
       <c r="K74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>126</v>
       </c>
       <c r="M74" s="10"/>
       <c r="N74" s="10"/>
-      <c r="O74" s="6" t="s">
+      <c r="O74" t="s">
         <v>135</v>
       </c>
-      <c r="P74" s="6" t="s">
+      <c r="P74" t="s">
         <v>46</v>
       </c>
-      <c r="Q74" s="6" t="s">
+      <c r="Q74" t="s">
         <v>136</v>
       </c>
-      <c r="R74" s="6" t="s">
+      <c r="R74" t="s">
         <v>48</v>
       </c>
-      <c r="S74" s="6" t="s">
+      <c r="S74" t="s">
         <v>45</v>
       </c>
-      <c r="T74" s="6" t="s">
+      <c r="T74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H75" t="s">
         <v>147</v>
       </c>
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q75" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R75" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S75" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T75" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H76" t="s">
         <v>147</v>
@@ -3880,72 +3898,62 @@
       <c r="B77" s="5" t="s">
         <v>154</v>
       </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
       <c r="D77" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" t="s">
         <v>154</v>
       </c>
-      <c r="G77" s="6"/>
-      <c r="I77" s="6" t="s">
-        <v>179</v>
+      <c r="F77" t="s">
+        <v>154</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H77" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
-      </c>
-      <c r="E78" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
-      </c>
-      <c r="H78" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="G78" s="6"/>
+      <c r="I78" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B79" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" t="s">
-        <v>157</v>
-      </c>
-      <c r="E79" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H79" t="s">
-        <v>147</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H80" t="s">
         <v>147</v>
@@ -3953,22 +3961,22 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H81" t="s">
         <v>147</v>
@@ -3976,34 +3984,45 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
-      </c>
-      <c r="G82" s="6"/>
-      <c r="I82" s="6" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
+        <v>158</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H83" t="s">
         <v>147</v>
@@ -4011,45 +4030,34 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" t="s">
-        <v>162</v>
-      </c>
-      <c r="E84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H84" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="G84" s="6"/>
+      <c r="I84" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H85" t="s">
         <v>147</v>
@@ -4057,28 +4065,45 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>163</v>
-      </c>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="D86" t="s">
+        <v>162</v>
+      </c>
+      <c r="E86" t="s">
+        <v>162</v>
+      </c>
+      <c r="F86" t="s">
+        <v>162</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H86" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="H87" t="s">
         <v>147</v>
@@ -4086,69 +4111,68 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" t="s">
-        <v>166</v>
-      </c>
-      <c r="E88" t="s">
-        <v>166</v>
-      </c>
-      <c r="F88" t="s">
-        <v>166</v>
-      </c>
-      <c r="H88" t="s">
-        <v>147</v>
+        <v>163</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="I88" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>167</v>
-      </c>
-      <c r="H89" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H89" t="s">
         <v>147</v>
       </c>
-      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
       </c>
       <c r="D90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
-      </c>
-      <c r="H90" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H90" t="s">
         <v>147</v>
       </c>
-      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H91" s="6" t="s">
         <v>147</v>
@@ -4157,16 +4181,16 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H92" s="6" t="s">
         <v>147</v>
@@ -4175,22 +4199,16 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C93" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>171</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>147</v>
@@ -4199,16 +4217,16 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F94" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>147</v>
@@ -4217,55 +4235,118 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>178</v>
-      </c>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6" t="s">
-        <v>179</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E95" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C96" t="s">
+        <v>181</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B97" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97" t="s">
+        <v>175</v>
+      </c>
+      <c r="F97" t="s">
+        <v>175</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D98" t="s">
+        <v>178</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E99" t="s">
         <v>176</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F99" t="s">
         <v>176</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="H99" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B97" s="7" t="s">
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C100" t="s">
+        <v>183</v>
+      </c>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C101" t="s">
         <v>177</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D101" t="s">
         <v>57</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E101" t="s">
         <v>57</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F101" t="s">
         <v>57</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B98" s="7" t="s">
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/inst/category_conversion_tables3.xlsx
+++ b/inst/category_conversion_tables3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE783C4E-5F25-4FE9-8602-D55E1C84ED6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F0A0D-E01B-4C2E-BA40-1CBCC9A76BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="185">
   <si>
     <t>Class/Subclass</t>
   </si>
@@ -577,6 +577,9 @@
   </si>
   <si>
     <t>Drugs</t>
+  </si>
+  <si>
+    <t>Pollen/spore</t>
   </si>
 </sst>
 </file>
@@ -990,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD102"/>
+  <dimension ref="A1:AD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4181,34 +4184,28 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
-      </c>
-      <c r="E92" t="s">
-        <v>168</v>
-      </c>
-      <c r="F92" t="s">
-        <v>168</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I92" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>147</v>
@@ -4217,16 +4214,16 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>147</v>
@@ -4235,22 +4232,16 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>171</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>147</v>
@@ -4259,94 +4250,121 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
-      </c>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="D96" t="s">
+        <v>171</v>
+      </c>
+      <c r="E96" t="s">
+        <v>171</v>
+      </c>
+      <c r="F96" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" t="s">
-        <v>174</v>
-      </c>
-      <c r="E97" t="s">
-        <v>175</v>
-      </c>
-      <c r="F97" t="s">
-        <v>175</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>147</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C97" t="s">
+        <v>181</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
         <v>173</v>
       </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
       <c r="D98" t="s">
-        <v>178</v>
-      </c>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6" t="s">
-        <v>179</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="E98" t="s">
+        <v>175</v>
+      </c>
+      <c r="F98" t="s">
+        <v>175</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E99" t="s">
-        <v>176</v>
-      </c>
-      <c r="F99" t="s">
-        <v>176</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I99" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="D99" t="s">
+        <v>178</v>
+      </c>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>176</v>
+      </c>
+      <c r="F100" t="s">
+        <v>176</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>183</v>
-      </c>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C101" t="s">
-        <v>177</v>
-      </c>
-      <c r="D101" t="s">
-        <v>57</v>
-      </c>
-      <c r="E101" t="s">
-        <v>57</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E102" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" t="s">
+        <v>57</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/inst/category_conversion_tables3.xlsx
+++ b/inst/category_conversion_tables3.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3F0A0D-E01B-4C2E-BA40-1CBCC9A76BBA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D92DDE-C89D-486F-83ED-040B557263B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dust_table_1.2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="190">
   <si>
     <t>Class/Subclass</t>
   </si>
@@ -580,6 +580,21 @@
   </si>
   <si>
     <t>Pollen/spore</t>
+  </si>
+  <si>
+    <t>Polyester - Cotton cloth</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Llama family</t>
+  </si>
+  <si>
+    <t>Scotch Tape</t>
+  </si>
+  <si>
+    <t>Azurite</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD103"/>
+  <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,204 +2521,160 @@
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
+      <c r="B37" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>99</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="K39" t="s">
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="K40" t="s">
         <v>4</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="S40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T40" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U39" s="1" t="s">
+      <c r="U40" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="V39" s="1" t="s">
+      <c r="V40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="W39" s="1" t="s">
+      <c r="W40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="X39" s="1" t="s">
+      <c r="X40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="Y39" s="1" t="s">
+      <c r="Y40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="Z40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AA39" s="8" t="s">
+      <c r="AA40" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB39" s="4" t="s">
+      <c r="AB40" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="K40" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" t="s">
-        <v>44</v>
-      </c>
-      <c r="M40" t="s">
-        <v>45</v>
-      </c>
-      <c r="N40" t="s">
-        <v>46</v>
-      </c>
-      <c r="O40" t="s">
-        <v>47</v>
-      </c>
-      <c r="P40" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>49</v>
-      </c>
-      <c r="R40" t="s">
-        <v>50</v>
-      </c>
-      <c r="S40" t="s">
-        <v>51</v>
-      </c>
-      <c r="T40" t="s">
-        <v>52</v>
-      </c>
-      <c r="U40" t="s">
-        <v>53</v>
-      </c>
-      <c r="V40" t="s">
-        <v>82</v>
-      </c>
-      <c r="W40" t="s">
-        <v>103</v>
-      </c>
-      <c r="X40" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="K41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L41" t="s">
         <v>44</v>
@@ -2724,7 +2695,7 @@
         <v>49</v>
       </c>
       <c r="R41" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
         <v>51</v>
@@ -2753,27 +2724,27 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="K42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42" t="s">
         <v>44</v>
@@ -2802,6 +2773,9 @@
       <c r="T42" t="s">
         <v>52</v>
       </c>
+      <c r="U42" t="s">
+        <v>53</v>
+      </c>
       <c r="V42" t="s">
         <v>82</v>
       </c>
@@ -2817,33 +2791,30 @@
       <c r="Z42" t="s">
         <v>106</v>
       </c>
-      <c r="AA42" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B43" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="K43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L43" t="s">
         <v>44</v>
@@ -2893,274 +2864,316 @@
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="K44" t="s">
-        <v>9</v>
-      </c>
-      <c r="L44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" t="s">
         <v>44</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="M44" t="s">
         <v>45</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" t="s">
         <v>46</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" t="s">
         <v>47</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" t="s">
         <v>48</v>
       </c>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" t="s">
         <v>49</v>
       </c>
-      <c r="R44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S44" s="6" t="s">
+      <c r="R44" t="s">
+        <v>110</v>
+      </c>
+      <c r="S44" t="s">
         <v>51</v>
       </c>
-      <c r="T44" s="6" t="s">
+      <c r="T44" t="s">
         <v>52</v>
       </c>
-      <c r="U44" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="V44" s="6" t="s">
+      <c r="V44" t="s">
         <v>82</v>
       </c>
-      <c r="W44" s="6" t="s">
+      <c r="W44" t="s">
         <v>103</v>
       </c>
-      <c r="X44" s="6" t="s">
+      <c r="X44" t="s">
         <v>104</v>
       </c>
-      <c r="Y44" s="6" t="s">
+      <c r="Y44" t="s">
         <v>105</v>
       </c>
-      <c r="Z44" s="6" t="s">
+      <c r="Z44" t="s">
         <v>106</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B45" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="T45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="W45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="X45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y45" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z45" s="6" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B48" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B49" s="7" t="s">
-        <v>54</v>
+      <c r="B49" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B51" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="K51" t="s">
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="K52" t="s">
         <v>4</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M51" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B52" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" t="s">
-        <v>125</v>
-      </c>
-      <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="K52" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B53" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="K53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L53" t="s">
         <v>126</v>
@@ -3168,50 +3181,69 @@
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B54" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
       <c r="K54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L54" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>54</v>
+      <c r="B55" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
       <c r="K55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
       <c r="K56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L56" t="s">
         <v>126</v>
@@ -3219,85 +3251,42 @@
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="7"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="K58" t="s">
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="K59" t="s">
         <v>4</v>
-      </c>
-      <c r="L58" t="s">
-        <v>51</v>
-      </c>
-      <c r="M58" t="s">
-        <v>44</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S58" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="T58" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B59" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F59" t="s">
-        <v>137</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="K59" t="s">
-        <v>5</v>
       </c>
       <c r="L59" t="s">
         <v>51</v>
@@ -3305,48 +3294,57 @@
       <c r="M59" t="s">
         <v>44</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O59" t="s">
+      <c r="O59" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R59" t="s">
+      <c r="R59" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S59" t="s">
-        <v>57</v>
+      <c r="S59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T59" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="K60" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="L60" t="s">
+        <v>51</v>
+      </c>
+      <c r="M60" t="s">
+        <v>44</v>
       </c>
       <c r="N60" t="s">
         <v>135</v>
@@ -3369,27 +3367,27 @@
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B61" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="K61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N61" t="s">
         <v>135</v>
@@ -3412,30 +3410,28 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="K62" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
+        <v>7</v>
+      </c>
       <c r="N62" t="s">
         <v>135</v>
       </c>
@@ -3454,309 +3450,286 @@
       <c r="S62" t="s">
         <v>57</v>
       </c>
-      <c r="T62" s="10"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
       <c r="K63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L63" s="10"/>
       <c r="M63" s="10"/>
-      <c r="N63" s="6" t="s">
+      <c r="N63" t="s">
         <v>135</v>
       </c>
-      <c r="O63" s="6" t="s">
+      <c r="O63" t="s">
         <v>46</v>
       </c>
-      <c r="P63" s="6" t="s">
+      <c r="P63" t="s">
         <v>136</v>
       </c>
-      <c r="Q63" s="6" t="s">
+      <c r="Q63" t="s">
         <v>48</v>
       </c>
-      <c r="R63" s="6" t="s">
+      <c r="R63" t="s">
         <v>45</v>
       </c>
-      <c r="S63" s="6" t="s">
+      <c r="S63" t="s">
         <v>57</v>
       </c>
       <c r="T63" s="10"/>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B64" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="O64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q64" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R64" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S64" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>143</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>143</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>143</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F67" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" t="s">
-        <v>144</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-    </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B68" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" t="s">
-        <v>144</v>
-      </c>
-      <c r="D68" t="s">
-        <v>145</v>
+      <c r="B68" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F68" t="s">
-        <v>145</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
+        <v>189</v>
+      </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+      <c r="E70" t="s">
+        <v>145</v>
+      </c>
+      <c r="F70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
+    <row r="72" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="K70" t="s">
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="K72" t="s">
         <v>4</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q70" s="1" t="s">
+      <c r="Q72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R70" s="1" t="s">
+      <c r="R72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="S70" s="1" t="s">
+      <c r="S72" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T70" s="8" t="s">
+      <c r="T72" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="U70" s="4" t="s">
+      <c r="U72" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="5" t="s">
+    <row r="73" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>149</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D73" t="s">
         <v>148</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E73" t="s">
         <v>148</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F73" t="s">
         <v>148</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G73" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="H71" t="s">
-        <v>147</v>
-      </c>
-      <c r="K71" t="s">
-        <v>5</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M71" t="s">
-        <v>51</v>
-      </c>
-      <c r="N71" t="s">
-        <v>44</v>
-      </c>
-      <c r="O71" t="s">
-        <v>135</v>
-      </c>
-      <c r="P71" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>136</v>
-      </c>
-      <c r="R71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S71" t="s">
-        <v>45</v>
-      </c>
-      <c r="T71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B72" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>148</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="K72" t="s">
-        <v>6</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="O72" t="s">
-        <v>135</v>
-      </c>
-      <c r="P72" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>136</v>
-      </c>
-      <c r="R72" t="s">
-        <v>48</v>
-      </c>
-      <c r="S72" t="s">
-        <v>45</v>
-      </c>
-      <c r="T72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B73" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="H73" t="s">
         <v>147</v>
       </c>
       <c r="K73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L73" s="6" t="s">
         <v>126</v>
       </c>
+      <c r="M73" t="s">
+        <v>51</v>
+      </c>
+      <c r="N73" t="s">
+        <v>44</v>
+      </c>
       <c r="O73" t="s">
         <v>135</v>
       </c>
@@ -3777,35 +3750,21 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B74" s="5" t="s">
-        <v>151</v>
+      <c r="B74" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" t="s">
-        <v>151</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="K74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
       <c r="O74" t="s">
         <v>135</v>
       </c>
@@ -3826,183 +3785,227 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B75" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
-      </c>
-      <c r="E75" t="s">
-        <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>152</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>152</v>
+      <c r="B75" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="H75" t="s">
         <v>147</v>
       </c>
       <c r="K75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L75" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="6" t="s">
+      <c r="O75" t="s">
         <v>135</v>
       </c>
-      <c r="P75" s="6" t="s">
+      <c r="P75" t="s">
         <v>46</v>
       </c>
-      <c r="Q75" s="6" t="s">
+      <c r="Q75" t="s">
         <v>136</v>
       </c>
-      <c r="R75" s="6" t="s">
+      <c r="R75" t="s">
         <v>48</v>
       </c>
-      <c r="S75" s="6" t="s">
+      <c r="S75" t="s">
         <v>45</v>
       </c>
-      <c r="T75" s="6" t="s">
+      <c r="T75" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H76" t="s">
         <v>147</v>
       </c>
+      <c r="K76" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" t="s">
+        <v>135</v>
+      </c>
+      <c r="P76" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>136</v>
+      </c>
+      <c r="R76" t="s">
+        <v>48</v>
+      </c>
+      <c r="S76" t="s">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H77" t="s">
         <v>147</v>
       </c>
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="R77" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T77" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
       </c>
       <c r="D78" t="s">
-        <v>154</v>
-      </c>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6" t="s">
-        <v>179</v>
+        <v>153</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
+        <v>153</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B79" s="5" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
-      </c>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="D79" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D80" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" t="s">
-        <v>156</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
-      <c r="H80" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81" t="s">
-        <v>157</v>
-      </c>
-      <c r="E81" t="s">
-        <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>157</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H81" t="s">
-        <v>147</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H82" t="s">
         <v>147</v>
@@ -4010,22 +4013,22 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H83" t="s">
         <v>147</v>
@@ -4033,34 +4036,45 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
-      </c>
-      <c r="G84" s="6"/>
-      <c r="I84" s="6" t="s">
-        <v>179</v>
+        <v>158</v>
+      </c>
+      <c r="D84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" t="s">
+        <v>158</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H84" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H85" t="s">
         <v>147</v>
@@ -4068,45 +4082,34 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
-        <v>162</v>
-      </c>
-      <c r="D86" t="s">
-        <v>162</v>
-      </c>
-      <c r="E86" t="s">
-        <v>162</v>
-      </c>
-      <c r="F86" t="s">
-        <v>162</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="H86" t="s">
-        <v>147</v>
+        <v>159</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="I86" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H87" t="s">
         <v>147</v>
@@ -4114,31 +4117,45 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>163</v>
-      </c>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6" t="s">
-        <v>179</v>
+        <v>162</v>
+      </c>
+      <c r="D88" t="s">
+        <v>162</v>
+      </c>
+      <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
+        <v>162</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H88" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="H89" t="s">
         <v>147</v>
@@ -4146,66 +4163,68 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
-      </c>
-      <c r="D90" t="s">
-        <v>166</v>
-      </c>
-      <c r="E90" t="s">
-        <v>166</v>
-      </c>
-      <c r="F90" t="s">
-        <v>166</v>
-      </c>
-      <c r="H90" t="s">
-        <v>147</v>
+        <v>163</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="I90" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="C91" t="s">
+        <v>165</v>
       </c>
       <c r="D91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>167</v>
-      </c>
-      <c r="H91" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" t="s">
         <v>147</v>
       </c>
-      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
-      </c>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6" t="s">
-        <v>179</v>
+        <v>166</v>
+      </c>
+      <c r="E92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>147</v>
@@ -4214,34 +4233,28 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D94" t="s">
-        <v>169</v>
-      </c>
-      <c r="E94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F94" t="s">
-        <v>169</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I94" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>147</v>
@@ -4250,22 +4263,16 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F96" t="s">
-        <v>171</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>147</v>
@@ -4274,30 +4281,40 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C97" t="s">
-        <v>181</v>
-      </c>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="D97" t="s">
+        <v>170</v>
+      </c>
+      <c r="E97" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" t="s">
+        <v>170</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="H98" s="6" t="s">
         <v>147</v>
@@ -4306,25 +4323,30 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" t="s">
-        <v>178</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>181</v>
+      </c>
+      <c r="G99" s="6"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="6" t="s">
-        <v>179</v>
-      </c>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C100" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" t="s">
+        <v>174</v>
       </c>
       <c r="E100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>147</v>
@@ -4333,38 +4355,85 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E102" t="s">
+        <v>176</v>
+      </c>
+      <c r="F102" t="s">
+        <v>176</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C103" t="s">
         <v>183</v>
       </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="6"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="7" t="s">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E104" t="s">
+        <v>185</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E105" t="s">
+        <v>188</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C106" t="s">
         <v>177</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D106" t="s">
         <v>57</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E106" t="s">
         <v>57</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F106" t="s">
         <v>57</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H102" s="6"/>
-      <c r="I102" s="6"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="7" t="s">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="7" t="s">
         <v>23</v>
       </c>
     </row>

--- a/inst/category_conversion_tables3.xlsx
+++ b/inst/category_conversion_tables3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\npetraco\latex\papers\dust\DUST PROJECT\dustproj\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D92DDE-C89D-486F-83ED-040B557263B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8BED0-0965-406F-A806-5B751CCC6CDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -694,6 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="E55" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,8 +1116,8 @@
       <c r="S3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>21</v>
+      <c r="T3" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>22</v>
